--- a/课件/SSM/Spring/笔记/Spring笔记.xlsx
+++ b/课件/SSM/Spring/笔记/Spring笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bean的xml配置" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="224">
   <si>
     <t>Spring</t>
   </si>
@@ -333,143 +333,10 @@
     <t>③ p标签</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FFBABABA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xmlns:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>="http://www.springframework.org/schema/p"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFE8BF6A"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;bean </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFBABABA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">="customer" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFBABABA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">="com.icss.test.Customer" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFBABABA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">="tom" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFBABABA"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>="21"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFE8BF6A"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt; &lt;/bean&gt;</t>
-    </r>
+    <t>xmlns:p="http://www.springframework.org/schema/p"</t>
+  </si>
+  <si>
+    <t>&lt;bean id="customer" class="com.icss.test.Customer" p:name="tom" p:age="21"&gt; &lt;/bean&gt;</t>
   </si>
   <si>
     <t>复杂数据类型set方法注入</t>
@@ -686,6 +553,134 @@
     <t>autowire</t>
   </si>
   <si>
+    <t>6 bean的生命周期</t>
+  </si>
+  <si>
+    <r>
+      <t>从创建到销毁</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   bean</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实例化</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性赋值</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始化方法</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取对象并使用</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象销毁</t>
+    </r>
+  </si>
+  <si>
     <t>1 解决问题</t>
   </si>
   <si>
@@ -1078,7 +1073,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,14 +1147,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FFBABABA"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFE8BF6A"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
@@ -1322,33 +1311,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FF9876AA"/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF328C21"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFBABABA"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9876AA"/>
-      <name val="Courier New"/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF328C21"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1664,10 +1637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1676,31 +1649,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1712,101 +1688,98 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1818,7 +1791,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4597,10 +4569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:V162"/>
+  <dimension ref="B3:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -4897,15 +4869,33 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="6:6">
+    <row r="83" ht="26.25" spans="5:14">
+      <c r="E83" s="5"/>
       <c r="F83" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="84" spans="6:6">
-      <c r="F84" s="11" t="s">
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" ht="26.25" spans="5:14">
+      <c r="E84" s="5"/>
+      <c r="F84" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
     </row>
     <row r="87" ht="23.25" spans="5:8">
       <c r="E87" s="3" t="s">
@@ -5220,6 +5210,16 @@
       </c>
       <c r="G162" s="1" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5235,8 +5235,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:W83"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
@@ -5253,22 +5253,22 @@
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="11:23">
@@ -5288,10 +5288,10 @@
     </row>
     <row r="42" spans="4:23">
       <c r="D42" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -5300,7 +5300,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
@@ -5310,91 +5310,91 @@
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="6:14">
       <c r="F46" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="6:13">
       <c r="F53" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="4:7">
       <c r="D73" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="4:10">
       <c r="D75" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="4:9">
       <c r="D79" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="4:8">
       <c r="D81" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="4:8">
       <c r="D83" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5409,8 +5409,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L263"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="25.5"/>
@@ -5420,10 +5420,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -5433,12 +5433,12 @@
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5447,119 +5447,119 @@
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="D11" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="12:12">
       <c r="L13" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="4:9">
       <c r="D17" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="3:5">
       <c r="C77" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="3:7">
       <c r="C82" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -5568,65 +5568,65 @@
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="4:6">
       <c r="D139" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="5:11">
       <c r="E149" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="166" spans="4:7">
       <c r="D166" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -5643,67 +5643,67 @@
     </row>
     <row r="182" spans="3:3">
       <c r="C182" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="4:4">
       <c r="D184" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="4:4">
       <c r="D186" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="4:4">
       <c r="D194" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="4:4">
       <c r="D207" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="219" spans="4:4">
       <c r="D219" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="221" spans="5:5">
       <c r="E221" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="222" spans="6:6">
       <c r="F222" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="232" spans="6:6">
       <c r="F232" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241" spans="5:5">
       <c r="E241" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="249" spans="5:5">
       <c r="E249" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="257" spans="5:5">
       <c r="E257" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263" spans="5:5">
       <c r="E263" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5718,8 +5718,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E103"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="18" outlineLevelCol="4"/>
@@ -5729,7 +5729,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -5739,55 +5739,55 @@
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5802,8 +5802,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="20.25" outlineLevelCol="5"/>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -5828,103 +5828,103 @@
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" ht="23.25" spans="3:3">
       <c r="C74" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" ht="23.25" spans="3:3">
       <c r="C118" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/课件/SSM/Spring/笔记/Spring笔记.xlsx
+++ b/课件/SSM/Spring/笔记/Spring笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="bean的xml配置" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="237">
   <si>
     <t>Spring</t>
   </si>
@@ -557,6 +557,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>从创建到销毁</t>
     </r>
     <r>
@@ -765,6 +772,412 @@
     <t>（容器关闭）</t>
   </si>
   <si>
+    <t>新增注解：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@Configuration </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置类</t>
+    </r>
+  </si>
+  <si>
+    <t>类上</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9E880D"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@ComponentScan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"com.icss"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫描包</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@Import(JDBConfig.class) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引入</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JDBConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9E880D"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@PropertySource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"classpath:druid.properties"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>引入properties文件  导入properties文件的值用 ${}</t>
+  </si>
+  <si>
+    <r>
+      <t>@Bean(name="bean</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">") </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法上</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建对象</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法的返回值就是要创建的对象</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> name</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果不写 方法名就是</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bean</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;bean id="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF328C21"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;&lt;/bean&gt;</t>
+    </r>
+  </si>
+  <si>
     <t>AOP：</t>
   </si>
   <si>
@@ -784,6 +1197,9 @@
   </si>
   <si>
     <t xml:space="preserve">  执行开始</t>
+  </si>
+  <si>
+    <t>开始执行</t>
   </si>
   <si>
     <r>
@@ -812,6 +1228,9 @@
     <t>影响了多个类的公共行为封装到一个可重用模块，形成切面</t>
   </si>
   <si>
+    <t>结束执行</t>
+  </si>
+  <si>
     <t>执行结束</t>
   </si>
   <si>
@@ -959,6 +1378,12 @@
   </si>
   <si>
     <t>方式二</t>
+  </si>
+  <si>
+    <t>完全通过注解实现：</t>
+  </si>
+  <si>
+    <t>创建配置类</t>
   </si>
   <si>
     <t>JdbcTemplate</t>
@@ -1073,7 +1498,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,6 +1553,12 @@
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FF9E880D"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1139,6 +1570,19 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9E880D"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF328C21"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="24"/>
@@ -1302,6 +1746,25 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF080808"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF067D17"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF328C21"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1637,10 +2100,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1649,137 +2112,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1787,10 +2250,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2509,15 +2976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>468630</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2526,7 +2993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1772920" y="3562350"/>
+          <a:off x="1791970" y="3733800"/>
           <a:ext cx="5445760" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="notchedRightArrow">
@@ -3414,6 +3881,48 @@
         <a:xfrm>
           <a:off x="3384550" y="85172550"/>
           <a:ext cx="9279890" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>337820</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2707640" y="91649550"/>
+          <a:ext cx="5753100" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4571,8 +5080,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:V167"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -4647,7 +5156,7 @@
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -4871,7 +5380,7 @@
     </row>
     <row r="83" ht="26.25" spans="5:14">
       <c r="E83" s="5"/>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G83" s="5"/>
@@ -4885,7 +5394,7 @@
     </row>
     <row r="84" ht="26.25" spans="5:14">
       <c r="E84" s="5"/>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G84" s="5"/>
@@ -5233,168 +5742,213 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:W83"/>
+  <dimension ref="B2:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="10.75" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="10.75" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="41" spans="11:23">
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
     </row>
     <row r="42" spans="4:23">
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8" t="s">
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46" spans="6:14">
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N46" s="8" t="s">
+      <c r="N46" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48" spans="14:14">
-      <c r="N48" s="8" t="s">
+      <c r="N48" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="14:14">
-      <c r="N50" s="8" t="s">
+      <c r="N50" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="6:13">
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="73" spans="4:7">
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="75" spans="4:10">
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="4:9">
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="81" spans="4:8">
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="83" spans="4:8">
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="8" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9">
+      <c r="E88" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10">
+      <c r="E90" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="5:11">
+      <c r="E92" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="5:12">
+      <c r="E94" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="5:17">
+      <c r="E96" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q96" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5407,10 +5961,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:L263"/>
+  <dimension ref="B2:L286"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="25.5"/>
@@ -5420,10 +5974,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -5433,12 +5987,12 @@
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5447,119 +6001,127 @@
     </row>
     <row r="10" spans="4:4">
       <c r="D10" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="D11" s="5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="12:12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="L12" s="6" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="12:12">
       <c r="L13" s="5" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="4:9">
       <c r="D17" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="5" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="5" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="5" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="3:5">
       <c r="C77" s="6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="5" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="3:7">
       <c r="C82" s="6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -5568,65 +6130,65 @@
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" s="5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="4:6">
       <c r="D139" s="6" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
     </row>
     <row r="141" spans="5:7">
       <c r="E141" s="5" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="5:7">
       <c r="E143" s="5" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="5:7">
       <c r="E145" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="5:7">
       <c r="E147" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="5:11">
       <c r="E149" s="6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
@@ -5635,7 +6197,7 @@
     </row>
     <row r="166" spans="4:7">
       <c r="D166" s="6" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -5643,68 +6205,102 @@
     </row>
     <row r="182" spans="3:3">
       <c r="C182" s="6" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="4:4">
       <c r="D184" s="5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="4:4">
       <c r="D186" s="5" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="4:4">
       <c r="D194" s="5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="4:4">
       <c r="D207" s="5" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="219" spans="4:4">
       <c r="D219" s="5" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="5:5">
       <c r="E221" s="5" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222" spans="6:6">
       <c r="F222" s="5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="232" spans="6:6">
       <c r="F232" s="5" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="241" spans="5:5">
       <c r="E241" s="5" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="249" spans="5:5">
       <c r="E249" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="257" spans="5:5">
       <c r="E257" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="263" spans="5:5">
       <c r="E263" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4">
+      <c r="D282" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="284" spans="5:10">
+      <c r="E284" s="7"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+      <c r="H284" s="8"/>
+      <c r="I284" s="8"/>
+      <c r="J284" s="8"/>
+    </row>
+    <row r="285" spans="5:10">
+      <c r="E285" s="7"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+      <c r="H285" s="8"/>
+      <c r="I285" s="8"/>
+      <c r="J285" s="8"/>
+    </row>
+    <row r="286" spans="5:10">
+      <c r="E286" s="7"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="8"/>
+      <c r="H286" s="8"/>
+      <c r="I286" s="8"/>
+      <c r="J286" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5718,8 +6314,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E103"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="18" outlineLevelCol="4"/>
@@ -5729,7 +6325,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -5739,55 +6335,55 @@
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="4" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="4" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="4" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="4" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="4" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="4" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" s="4" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" s="4" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5802,7 +6398,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -5817,7 +6413,7 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -5828,103 +6424,103 @@
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" ht="23.25" spans="3:3">
       <c r="C74" s="3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" s="1" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" ht="23.25" spans="3:3">
       <c r="C118" s="3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
